--- a/Data/Transitions/19001921Translation.xlsx
+++ b/Data/Transitions/19001921Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="670">
   <si>
     <t>id</t>
   </si>
@@ -127,7 +127,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4741146168705731}</t>
+    <t>{834.0: 0.47414514778800954}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -139,7 +139,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -163,13 +163,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -247,10 +247,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
-  </si>
-  <si>
-    <t>{108.0: 1.0, 144.0: 0.008213749629680859}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
+  </si>
+  <si>
+    <t>{108.0: 1.0, 144.0: 0.008213565408014333}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -268,19 +268,19 @@
     <t>{141.0: 0.7010364992187316, 762.0: 0.7010364992187316}</t>
   </si>
   <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.9168485213334336, 764.0: 0.02364448224537529}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.9109445519019987, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -349,10 +349,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872}</t>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -361,7 +361,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -379,7 +379,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -472,6 +472,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -490,7 +493,7 @@
     <t>{249.0: 0.8123817247904839}</t>
   </si>
   <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
   </si>
   <si>
     <t>{251.0: 1.0}</t>
@@ -532,7 +535,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8162546562817474}</t>
+    <t>{264.0: 0.8178827951936631}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
@@ -559,10 +562,10 @@
     <t>{686.0: 0.39664942103966494}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6992746637967333, 180.0: 0.013996985868565445}</t>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6992746637967333, 180.0: 0.02295240336741064}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -619,7 +622,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.7768290641218818}</t>
+    <t>{298.0: 0.7768166089965398}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -643,7 +646,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -658,7 +661,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -682,9 +685,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -694,7 +694,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.09431007482164608}</t>
+    <t>{476.0: 1.0, 595.0: 0.09373919059149083}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -844,7 +844,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.6817752596789424, 837.0: 0.009122201354230282}</t>
+    <t>{486.0: 0.6817752596789424, 837.0: 0.00936130623498098}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -877,7 +877,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -886,13 +886,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.2644754603466771, 180.0: 0.00529385586624206}</t>
+    <t>{277.0: 0.2644754603466771, 180.0: 0.00868092004606518}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.23553719008264462}</t>
+    <t>{534.0: 0.22213106348066866}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -925,13 +925,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.4934337569518343}</t>
+    <t>{534.0: 0.5209020292831862}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -940,7 +940,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -1006,7 +1006,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1039,13 +1039,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9056899251783539}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9062608094085092}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1099,7 +1099,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1174,7 +1174,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{686.0: 0.6033505789603351}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1213,7 +1213,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1246,13 +1246,13 @@
     <t>{730.0: 0.734187349879904, 289.0: 0.17008952080042128}</t>
   </si>
   <si>
-    <t>{731.0: 0.5093056179396515}</t>
+    <t>{731.0: 0.5242772338343619}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1336,7 +1336,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1417,7 +1417,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1444,7 +1444,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.18374534371825263}</t>
+    <t>{264.0: 0.18211720480633684}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1462,7 +1462,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1480,7 +1480,7 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
+    <t>{146.0: 0.2650049428046886}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1540,7 +1540,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1549,10 +1549,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.08605117053256657}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.5940957425838385}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.08512422334873498}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.5940772123747377}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1570,7 +1570,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1579,7 +1579,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1609,7 +1609,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.8441091116198934}</t>
+    <t>{930.0: 0.8350163292786408}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1630,16 +1630,16 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.1834781652183478, 497.0: 0.03279947345326898, 731.0: 0.08397950602729068}</t>
+    <t>{593.0: 0.24784505665281187}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.1834781652183478, 497.0: 0.03292407641909376, 731.0: 0.06900789013258028}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1690,7 +1690,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.1333273316528628}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1744,7 +1744,7 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009012, 762.0: 0.057901139999098836}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -1756,7 +1756,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432472, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432471, 764.0: 0.041601197156752714}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1774,7 +1774,7 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.2110956036287509}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977653}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1795,7 +1795,7 @@
     <t>{581.0: 0.9502995340581318, 144.0: 0.0497004659418682}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740361, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740361, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1810,7 +1810,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
@@ -1828,7 +1828,7 @@
     <t>{309.0: 0.9590241591662719, 204.0: 0.04097584083372809}</t>
   </si>
   <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
@@ -1846,7 +1846,7 @@
     <t>{431.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352775, 595.0: 0.15419630156472267}</t>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619289, 837.0: 0.1186280083380709}</t>
@@ -1861,19 +1861,16 @@
     <t>{497.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434108, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124716, 837.0: 0.18177668218752852}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.6112044817927171}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664718, 837.0: 0.18169373973352793}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -1882,7 +1879,7 @@
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587967, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1897,10 +1894,10 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7620095020848972, 837.0: 0.169288207838767, 922.0: 0.06870229007633588}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1915,16 +1912,13 @@
     <t>{629.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{636.0: 1.0}</t>
   </si>
   <si>
     <t>{615.0: 0.5922794117647059, 698.0: 0.11176470588235297, 751.0: 0.2959558823529412}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.2921423774345197}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
@@ -1960,10 +1954,10 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787177, 917.0: 0.07999122892128212}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.05790113999909882}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
@@ -1972,13 +1966,13 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9689657749414815, 486.0: 0.03103422505851863}</t>
+    <t>{837.0: 0.9689657749414812, 486.0: 0.03103422505851863}</t>
   </si>
   <si>
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -2008,22 +2002,22 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.388360061867428, 702.0: 0.611639938132572}</t>
+    <t>{249.0: 0.3883600618674283, 702.0: 0.611639938132572}</t>
   </si>
   <si>
     <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626103}</t>
   </si>
   <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.09946442234123949}</t>
+    <t>{785.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137406}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372655, 729.0: 0.3049207329627342}</t>
@@ -4045,7 +4039,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4056,7 +4050,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -4067,7 +4061,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4078,7 +4072,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4089,7 +4083,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4100,40 +4094,40 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>591</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>592</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4144,7 +4138,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4155,7 +4149,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4166,40 +4160,40 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>593</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>594</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4210,7 +4204,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4221,7 +4215,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4232,7 +4226,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4243,7 +4237,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4254,7 +4248,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4265,40 +4259,40 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>595</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>594</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4309,7 +4303,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4320,7 +4314,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4331,7 +4325,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4342,7 +4336,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4353,51 +4347,51 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>596</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4408,7 +4402,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4419,7 +4413,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4430,7 +4424,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4441,7 +4435,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4452,7 +4446,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4463,7 +4457,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4474,7 +4468,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4485,29 +4479,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>599</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>599</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4518,51 +4512,51 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>600</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>600</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>570</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>198</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4573,7 +4567,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4584,29 +4578,29 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>601</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>601</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4617,7 +4611,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4628,7 +4622,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4639,7 +4633,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4650,7 +4644,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4661,7 +4655,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4672,29 +4666,29 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>602</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>210</v>
+        <v>602</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4705,51 +4699,51 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>603</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>605</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4760,7 +4754,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4771,7 +4765,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4782,7 +4776,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4793,7 +4787,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4804,7 +4798,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4815,7 +4809,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5569,7 +5563,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5591,7 +5585,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5635,7 +5629,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5712,7 +5706,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5734,7 +5728,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5767,7 +5761,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5789,7 +5783,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5800,7 +5794,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5888,7 +5882,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5899,7 +5893,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6031,7 +6025,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6130,7 +6124,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6141,7 +6135,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6229,7 +6223,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6240,7 +6234,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6350,7 +6344,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6372,7 +6366,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6394,7 +6388,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6493,7 +6487,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6504,7 +6498,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6515,7 +6509,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6559,7 +6553,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6625,7 +6619,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6669,7 +6663,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6713,7 +6707,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6768,7 +6762,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6801,7 +6795,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6867,7 +6861,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6878,7 +6872,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6911,7 +6905,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6922,7 +6916,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6933,7 +6927,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6999,7 +6993,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7010,7 +7004,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7043,7 +7037,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7087,7 +7081,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7109,7 +7103,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7153,7 +7147,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7197,7 +7191,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7406,7 +7400,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7439,7 +7433,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7549,7 +7543,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7560,7 +7554,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7681,7 +7675,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7725,7 +7719,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7857,7 +7851,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7868,7 +7862,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7967,7 +7961,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8000,7 +7994,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8011,7 +8005,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8022,7 +8016,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8033,7 +8027,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8077,7 +8071,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8088,7 +8082,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8143,7 +8137,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8220,7 +8214,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8253,7 +8247,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8297,7 +8291,7 @@
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -8308,7 +8302,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8330,7 +8324,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8396,7 +8390,7 @@
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -8429,7 +8423,7 @@
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -8473,7 +8467,7 @@
         <v>554</v>
       </c>
       <c r="C553" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -8506,7 +8500,7 @@
         <v>557</v>
       </c>
       <c r="C556" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -8517,7 +8511,7 @@
         <v>558</v>
       </c>
       <c r="C557" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="558" spans="1:3">
